--- a/BackTest/2019-10-30 BackTest LBA.xlsx
+++ b/BackTest/2019-10-30 BackTest LBA.xlsx
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5771,13 +5771,17 @@
         <v>17.95</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K154" t="n">
+        <v>17.8</v>
+      </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
@@ -5806,14 +5810,22 @@
         <v>17.93999999999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5841,14 +5853,22 @@
         <v>17.935</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5876,14 +5896,22 @@
         <v>17.92499999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K157" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5911,14 +5939,22 @@
         <v>17.91999999999999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>18</v>
+      </c>
+      <c r="K158" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5982,22 @@
         <v>17.915</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +6025,22 @@
         <v>17.91999999999999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +6068,22 @@
         <v>17.92499999999999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6117,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6158,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6322,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6363,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +6486,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6407,8 +6527,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6442,8 +6568,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6477,8 +6609,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6582,8 +6732,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6773,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6652,8 +6814,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6687,8 +6855,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,8 +6896,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6937,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +6978,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6827,8 +7019,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7101,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7142,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7183,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7224,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7265,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7306,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7107,8 +7347,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7142,8 +7388,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7177,8 +7429,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7212,8 +7470,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7247,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7282,8 +7552,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7593,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7716,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7757,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7839,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7880,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +7962,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +8003,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8126,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +8167,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8208,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7871,18 +8243,20 @@
         <v>17.63999999999999</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L214" t="inlineStr"/>
+        <v>17.8</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7910,20 +8284,18 @@
         <v>17.62999999999999</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M215" t="n">
@@ -7953,16 +8325,14 @@
         <v>17.61499999999999</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -7996,16 +8366,14 @@
         <v>17.58499999999999</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8039,16 +8407,14 @@
         <v>17.54999999999999</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8082,16 +8448,14 @@
         <v>17.51999999999999</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8131,10 +8495,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="K220" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8174,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="K221" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8217,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="K222" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8254,16 +8618,14 @@
         <v>17.41999999999999</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8297,16 +8659,14 @@
         <v>17.41999999999999</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8349,7 +8709,7 @@
         <v>17.4</v>
       </c>
       <c r="K225" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8392,7 +8752,7 @@
         <v>17.4</v>
       </c>
       <c r="K226" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8432,10 +8792,10 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="K227" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8475,10 +8835,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="K228" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8518,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="K229" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8555,16 +8915,14 @@
         <v>17.36499999999999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8598,16 +8956,14 @@
         <v>17.36999999999999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8641,16 +8997,14 @@
         <v>17.37499999999999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -8684,16 +9038,14 @@
         <v>17.37499999999999</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -8727,16 +9079,14 @@
         <v>17.37499999999999</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -8770,16 +9120,14 @@
         <v>17.37999999999999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -8813,16 +9161,14 @@
         <v>17.38499999999999</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -8856,16 +9202,14 @@
         <v>17.38999999999999</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -8899,16 +9243,14 @@
         <v>17.40499999999999</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -8942,16 +9284,14 @@
         <v>17.41999999999999</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -8985,16 +9325,14 @@
         <v>17.44499999999999</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9028,16 +9366,14 @@
         <v>17.45499999999999</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9071,16 +9407,14 @@
         <v>17.45999999999999</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9114,16 +9448,14 @@
         <v>17.465</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9157,16 +9489,14 @@
         <v>17.475</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9200,16 +9530,14 @@
         <v>17.485</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9243,16 +9571,14 @@
         <v>17.48</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9286,16 +9612,14 @@
         <v>17.49</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9329,16 +9653,14 @@
         <v>17.49</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9372,16 +9694,14 @@
         <v>17.485</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9415,16 +9735,14 @@
         <v>17.495</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9458,16 +9776,14 @@
         <v>17.49</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9501,16 +9817,14 @@
         <v>17.49</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9544,16 +9858,14 @@
         <v>17.485</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9587,16 +9899,14 @@
         <v>17.475</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9630,16 +9940,14 @@
         <v>17.465</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9673,16 +9981,14 @@
         <v>17.455</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9716,16 +10022,14 @@
         <v>17.455</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -9759,16 +10063,14 @@
         <v>17.45</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -9802,16 +10104,14 @@
         <v>17.43999999999999</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -9845,16 +10145,14 @@
         <v>17.42999999999999</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -9888,16 +10186,14 @@
         <v>17.41499999999999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -9931,16 +10227,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -9974,16 +10268,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -10017,16 +10309,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -10060,16 +10350,14 @@
         <v>17.38999999999999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -10103,16 +10391,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -10146,16 +10432,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -10189,16 +10473,14 @@
         <v>17.39999999999998</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -10232,16 +10514,14 @@
         <v>17.40499999999998</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -10275,16 +10555,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -10318,16 +10596,14 @@
         <v>17.38999999999999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -10361,16 +10637,14 @@
         <v>17.38499999999999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -10404,16 +10678,14 @@
         <v>17.38999999999999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10447,16 +10719,14 @@
         <v>17.39499999999999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10490,16 +10760,14 @@
         <v>17.39999999999998</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10533,16 +10801,14 @@
         <v>17.41499999999998</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10576,16 +10842,14 @@
         <v>17.41499999999998</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10619,16 +10883,14 @@
         <v>17.40999999999999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10662,16 +10924,14 @@
         <v>17.40499999999999</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10705,16 +10965,14 @@
         <v>17.40499999999999</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10748,16 +11006,14 @@
         <v>17.41499999999999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10791,16 +11047,14 @@
         <v>17.42499999999999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10834,16 +11088,14 @@
         <v>17.42499999999999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10877,16 +11129,14 @@
         <v>17.41999999999999</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10920,16 +11170,14 @@
         <v>17.41999999999999</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10963,16 +11211,14 @@
         <v>17.44499999999999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -11006,16 +11252,14 @@
         <v>17.44999999999999</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -11049,16 +11293,14 @@
         <v>17.44999999999999</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -11092,16 +11334,14 @@
         <v>17.45499999999999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -11135,16 +11375,14 @@
         <v>17.45999999999999</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -11178,16 +11416,14 @@
         <v>17.46499999999999</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -11221,16 +11457,14 @@
         <v>17.48999999999999</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -11264,16 +11498,14 @@
         <v>17.49999999999999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -11307,16 +11539,14 @@
         <v>17.51999999999999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -11357,7 +11587,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -11398,7 +11628,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -11439,7 +11669,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11480,7 +11710,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11521,7 +11751,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11562,7 +11792,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11603,7 +11833,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11644,7 +11874,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11685,7 +11915,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11726,7 +11956,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11760,16 +11990,14 @@
         <v>17.575</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11803,16 +12031,14 @@
         <v>17.555</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11846,16 +12072,14 @@
         <v>17.54499999999999</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11889,16 +12113,14 @@
         <v>17.555</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11932,16 +12154,14 @@
         <v>17.54999999999999</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11975,16 +12195,14 @@
         <v>17.54499999999999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -12018,16 +12236,14 @@
         <v>17.54</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -12061,16 +12277,14 @@
         <v>17.515</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -12104,16 +12318,14 @@
         <v>17.495</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -12147,16 +12359,14 @@
         <v>17.47</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -12190,16 +12400,14 @@
         <v>17.48</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -12233,16 +12441,14 @@
         <v>17.475</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -12276,16 +12482,14 @@
         <v>17.47</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -12319,16 +12523,14 @@
         <v>17.465</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -12362,16 +12564,14 @@
         <v>17.465</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -12405,16 +12605,14 @@
         <v>17.47</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -12448,16 +12646,14 @@
         <v>17.485</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12498,7 +12694,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12539,7 +12735,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12580,7 +12776,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12621,7 +12817,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12655,16 +12851,14 @@
         <v>17.525</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12705,7 +12899,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12746,7 +12940,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12787,7 +12981,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12828,7 +13022,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12869,7 +13063,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12910,7 +13104,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12951,7 +13145,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12985,16 +13179,14 @@
         <v>17.6</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -13028,16 +13220,14 @@
         <v>17.585</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -13071,16 +13261,14 @@
         <v>17.575</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>17.3</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -13114,16 +13302,14 @@
         <v>17.565</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -13157,16 +13343,14 @@
         <v>17.56</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -13200,16 +13384,14 @@
         <v>17.55</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -13243,16 +13425,14 @@
         <v>17.535</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -13286,16 +13466,14 @@
         <v>17.52999999999999</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -13329,16 +13507,14 @@
         <v>17.52</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -13372,16 +13548,14 @@
         <v>17.52</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -13415,16 +13589,14 @@
         <v>17.52</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -13458,16 +13630,14 @@
         <v>17.525</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -13501,16 +13671,14 @@
         <v>17.51999999999999</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -13544,16 +13712,14 @@
         <v>17.51999999999999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -13587,16 +13753,14 @@
         <v>17.53999999999999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13630,16 +13794,14 @@
         <v>17.54499999999999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13680,7 +13842,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13721,7 +13883,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13762,7 +13924,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13803,7 +13965,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13837,16 +13999,14 @@
         <v>17.52999999999999</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>17.4</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13880,16 +14040,14 @@
         <v>17.53999999999999</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13923,16 +14081,14 @@
         <v>17.54999999999999</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13966,16 +14122,14 @@
         <v>17.55499999999999</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -14009,16 +14163,14 @@
         <v>17.56499999999999</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -14052,16 +14204,14 @@
         <v>17.57499999999999</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -14095,16 +14245,14 @@
         <v>17.59499999999999</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -14145,7 +14293,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -14186,7 +14334,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -14227,7 +14375,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -14268,7 +14416,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -14309,7 +14457,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -14350,7 +14498,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -14391,7 +14539,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -14432,7 +14580,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -14473,7 +14621,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -14514,7 +14662,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -14555,7 +14703,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -14596,7 +14744,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -14637,7 +14785,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -14678,7 +14826,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -14719,7 +14867,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -14760,7 +14908,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14801,7 +14949,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14842,7 +14990,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14883,7 +15031,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -14924,7 +15072,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14965,7 +15113,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -15006,7 +15154,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -15047,7 +15195,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -15088,7 +15236,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -15129,7 +15277,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -15170,7 +15318,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -15211,7 +15359,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -15252,7 +15400,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -15293,7 +15441,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -15334,7 +15482,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -15371,19 +15519,19 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="392">
@@ -15412,17 +15560,11 @@
         <v>0</v>
       </c>
       <c r="I392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15453,17 +15595,11 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15497,14 +15633,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15538,14 +15668,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15579,14 +15703,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15620,14 +15738,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15661,14 +15773,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15702,14 +15808,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15743,14 +15843,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15784,14 +15878,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15825,14 +15913,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15866,14 +15948,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15907,14 +15983,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15948,14 +16018,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15989,14 +16053,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16030,14 +16088,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16071,14 +16123,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16112,14 +16158,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16153,14 +16193,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16194,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16235,14 +16263,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16276,14 +16298,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16317,14 +16333,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16358,14 +16368,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16399,14 +16403,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16440,14 +16438,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16481,14 +16473,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16522,14 +16508,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16563,14 +16543,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16604,14 +16578,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16645,14 +16613,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16686,14 +16648,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16727,14 +16683,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16768,14 +16718,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16809,14 +16753,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16850,14 +16788,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16891,14 +16823,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16932,14 +16858,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16973,14 +16893,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17014,14 +16928,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17055,14 +16963,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17096,14 +16998,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17137,14 +17033,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17178,14 +17068,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17219,14 +17103,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17260,14 +17138,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17301,14 +17173,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest LBA.xlsx
+++ b/BackTest/2019-10-30 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1988522.878352026</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1988522.878352026</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-869077.8953148102</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-930981.7626148103</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1220601.02461481</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1291841.60781481</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1338930.40881481</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1342174.54471481</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1463898.59841481</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1757683.56011481</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1757683.56011481</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1404902.15541481</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1464604.32381481</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1477198.65661481</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1425230.42201481</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1403093.81071481</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1443730.89041481</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1390383.40991481</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1613031.72091481</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1596754.42441481</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1677234.98151481</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2071007.44171481</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2105803.53461481</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1975844.04661481</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1983767.94501481</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2000951.67711481</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1676473.459214811</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1621527.475067442</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1673172.470967442</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1901641.488667442</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2315810.980867442</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2303621.959567442</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2303611.959567442</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2303611.959567442</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -8734,11 +8734,17 @@
         <v>-4267450.803267442</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8773,17 @@
         <v>-4267450.803267442</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8812,17 @@
         <v>-4242448.303267442</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>17.8</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8855,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +8892,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +8929,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +8966,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9003,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9040,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9077,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9114,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,15 +9147,17 @@
         <v>-4366127.107567442</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>17.5</v>
       </c>
-      <c r="J264" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,17 +9186,15 @@
         <v>-4380036.520667441</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>17.5</v>
       </c>
-      <c r="J265" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9175,14 +9225,12 @@
         <v>-4138942.520667441</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>17.3</v>
       </c>
-      <c r="J266" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,14 +9264,12 @@
         <v>-4136736.520667441</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>17.5</v>
       </c>
-      <c r="J267" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,14 +9303,12 @@
         <v>-4134236.520667441</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>17.6</v>
       </c>
-      <c r="J268" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,12 +9342,12 @@
         <v>-4193877.738867441</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9337,12 +9381,12 @@
         <v>-4081246.956967441</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9376,12 +9420,12 @@
         <v>-4177844.033167441</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9415,12 +9459,12 @@
         <v>-4168007.091967442</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9454,12 +9498,12 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9493,12 +9537,12 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
         <v>17.5</v>
       </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9532,12 +9576,12 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
         <v>17.5</v>
       </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,14 +9615,12 @@
         <v>-4469212.467567442</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>17.5</v>
       </c>
-      <c r="J276" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,14 +9654,12 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>17.4</v>
       </c>
-      <c r="J277" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9653,14 +9693,12 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>17.3</v>
       </c>
-      <c r="J278" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,14 +9732,12 @@
         <v>-4783047.552467442</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>17.3</v>
       </c>
-      <c r="J279" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,14 +9771,12 @@
         <v>-4732831.081267443</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>17.1</v>
       </c>
-      <c r="J280" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9776,14 +9810,12 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>17.3</v>
       </c>
-      <c r="J281" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9817,14 +9849,12 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>17.4</v>
       </c>
-      <c r="J282" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9858,14 +9888,12 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>17.4</v>
       </c>
-      <c r="J283" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9899,14 +9927,12 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>17.4</v>
       </c>
-      <c r="J284" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,14 +9966,12 @@
         <v>-4696936.081267443</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>17.4</v>
       </c>
-      <c r="J285" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,12 +10005,12 @@
         <v>-4726694.405367442</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10020,14 +10044,12 @@
         <v>-4718459.405367442</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>17.2</v>
       </c>
-      <c r="J287" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10061,14 +10083,12 @@
         <v>-4718459.405367442</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>17.3</v>
       </c>
-      <c r="J288" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,14 +10122,12 @@
         <v>-4708459.405367442</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>17.3</v>
       </c>
-      <c r="J289" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10143,14 +10161,12 @@
         <v>-4708173.691167442</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>17.4</v>
       </c>
-      <c r="J290" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,14 +10200,12 @@
         <v>-4708173.691167442</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>17.5</v>
       </c>
-      <c r="J291" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,14 +10239,12 @@
         <v>-4708173.691167442</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>17.5</v>
       </c>
-      <c r="J292" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10266,14 +10278,12 @@
         <v>-4708173.691167442</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>17.5</v>
       </c>
-      <c r="J293" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,14 +10317,12 @@
         <v>-4680573.691167442</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>17.5</v>
       </c>
-      <c r="J294" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10348,14 +10356,12 @@
         <v>-4680573.691167442</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>17.6</v>
       </c>
-      <c r="J295" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10389,14 +10395,12 @@
         <v>-4720853.609567442</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>17.6</v>
       </c>
-      <c r="J296" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,14 +10434,12 @@
         <v>-4713543.620067442</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>17.5</v>
       </c>
-      <c r="J297" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10471,12 +10473,12 @@
         <v>-4706043.620067442</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10510,12 +10512,12 @@
         <v>-4706043.620067442</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,14 +10551,12 @@
         <v>-4751681.071967442</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>17.7</v>
       </c>
-      <c r="J300" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,14 +10590,12 @@
         <v>-4901930.282467442</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>17.6</v>
       </c>
-      <c r="J301" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,9 +10632,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10670,12 +10666,12 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,12 +10705,12 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10748,12 +10744,12 @@
         <v>-4976377.540767442</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10787,12 +10783,12 @@
         <v>-4962489.884767441</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10826,14 +10822,12 @@
         <v>-4962539.884767441</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>17.6</v>
       </c>
-      <c r="J307" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,12 +10861,12 @@
         <v>-4755085.869367441</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,14 +10900,12 @@
         <v>-4567633.662767441</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>17.5</v>
       </c>
-      <c r="J309" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10947,12 +10939,12 @@
         <v>-4614718.245567441</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10986,14 +10978,12 @@
         <v>-4299612.047767441</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>17.2</v>
       </c>
-      <c r="J311" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11027,12 +11017,12 @@
         <v>-4409798.85276744</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11066,12 +11056,12 @@
         <v>-4542615.28436744</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11105,14 +11095,12 @@
         <v>-4509423.10296744</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>17.2</v>
       </c>
-      <c r="J314" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,14 +11134,12 @@
         <v>-4491473.10296744</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>17.3</v>
       </c>
-      <c r="J315" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11187,14 +11173,12 @@
         <v>-4491473.10296744</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>17.4</v>
       </c>
-      <c r="J316" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,14 +11212,12 @@
         <v>-4491473.10296744</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>17.4</v>
       </c>
-      <c r="J317" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,14 +11251,12 @@
         <v>-4491473.10296744</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>17.4</v>
       </c>
-      <c r="J318" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11310,14 +11290,12 @@
         <v>-4491473.10296744</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>17.4</v>
       </c>
-      <c r="J319" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,14 +11329,12 @@
         <v>-4322370.22246744</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>17.4</v>
       </c>
-      <c r="J320" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11392,14 +11368,12 @@
         <v>-4492406.42776744</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>17.5</v>
       </c>
-      <c r="J321" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,14 +11407,12 @@
         <v>-4441994.42776744</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>17.4</v>
       </c>
-      <c r="J322" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11474,14 +11446,12 @@
         <v>-4298753.42776744</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>17.5</v>
       </c>
-      <c r="J323" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11515,14 +11485,12 @@
         <v>-4328553.42776744</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>17.7</v>
       </c>
-      <c r="J324" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11556,14 +11524,12 @@
         <v>-4236784.05046744</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>17.5</v>
       </c>
-      <c r="J325" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,14 +11563,12 @@
         <v>-4255078.68756744</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>17.9</v>
       </c>
-      <c r="J326" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11638,14 +11602,12 @@
         <v>-4255078.68756744</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>17.4</v>
       </c>
-      <c r="J327" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11679,14 +11641,12 @@
         <v>-4263764.352267439</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>17.4</v>
       </c>
-      <c r="J328" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11720,14 +11680,12 @@
         <v>-4251230.078867439</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>17.3</v>
       </c>
-      <c r="J329" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11761,14 +11719,12 @@
         <v>-4242816.865467439</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>17.4</v>
       </c>
-      <c r="J330" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,14 +11758,12 @@
         <v>-4236242.865467439</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>17.5</v>
       </c>
-      <c r="J331" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11843,14 +11797,12 @@
         <v>-4239815.378667439</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>17.9</v>
       </c>
-      <c r="J332" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11884,14 +11836,12 @@
         <v>-4189675.751867439</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>17.4</v>
       </c>
-      <c r="J333" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11925,14 +11875,12 @@
         <v>-4189675.751867439</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>17.8</v>
       </c>
-      <c r="J334" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,14 +11914,12 @@
         <v>-4195944.824867439</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>17.8</v>
       </c>
-      <c r="J335" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12007,14 +11953,10 @@
         <v>-4206711.95466744</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J336" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12048,14 +11990,12 @@
         <v>-4089362.58866744</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>17.3</v>
       </c>
-      <c r="J337" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12089,14 +12029,12 @@
         <v>-4114054.48466744</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>17.7</v>
       </c>
-      <c r="J338" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12130,14 +12068,12 @@
         <v>-4118118.22196744</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>17.6</v>
       </c>
-      <c r="J339" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12171,14 +12107,12 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>17.4</v>
       </c>
-      <c r="J340" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12212,14 +12146,12 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>17.5</v>
       </c>
-      <c r="J341" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,14 +12185,12 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>17.5</v>
       </c>
-      <c r="J342" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12294,14 +12224,12 @@
         <v>-4099486.29906744</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>17.5</v>
       </c>
-      <c r="J343" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12335,14 +12263,12 @@
         <v>-3999886.29906744</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>17.5</v>
       </c>
-      <c r="J344" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12376,14 +12302,10 @@
         <v>-3999749.53936744</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J345" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12417,14 +12339,10 @@
         <v>-4007749.53936744</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J346" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12458,14 +12376,10 @@
         <v>-4020938.66176744</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J347" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12502,9 +12416,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12541,9 +12453,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12577,14 +12487,10 @@
         <v>-3911753.10386744</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J350" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12618,14 +12524,10 @@
         <v>-3933416.446467441</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>18</v>
-      </c>
-      <c r="J351" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12662,9 +12564,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12701,9 +12601,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12740,9 +12638,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,9 +12675,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,9 +12712,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,9 +12749,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12893,14 +12783,10 @@
         <v>-3958357.62346744</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J358" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,14 +12820,10 @@
         <v>-4195302.62346744</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J359" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12978,9 +12860,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,14 +12894,10 @@
         <v>-4085751.14096744</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J361" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,9 +12934,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,14 +12968,12 @@
         <v>-4107778.72226744</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>17.3</v>
       </c>
-      <c r="J363" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13135,12 +13007,12 @@
         <v>-4130732.27796744</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
         <v>17.5</v>
       </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13174,12 +13046,12 @@
         <v>-4122731.27796744</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13213,12 +13085,12 @@
         <v>-4109268.13556744</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
         <v>17.5</v>
       </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13252,12 +13124,12 @@
         <v>-4110979.13556744</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13291,12 +13163,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13330,14 +13202,10 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J369" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13371,14 +13239,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>17.3</v>
       </c>
-      <c r="J370" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13412,14 +13278,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>17.3</v>
       </c>
-      <c r="J371" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,14 +13317,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>17.3</v>
       </c>
-      <c r="J372" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13494,14 +13356,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>17.3</v>
       </c>
-      <c r="J373" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,14 +13395,12 @@
         <v>-4156193.98026744</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>17.3</v>
       </c>
-      <c r="J374" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13576,14 +13434,12 @@
         <v>-4158066.07326744</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>17.7</v>
       </c>
-      <c r="J375" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13617,14 +13473,12 @@
         <v>-4168243.00946744</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>17.5</v>
       </c>
-      <c r="J376" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13658,14 +13512,10 @@
         <v>-4157643.00946744</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J377" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13699,14 +13549,12 @@
         <v>-4157643.00946744</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>17.7</v>
       </c>
-      <c r="J378" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13740,14 +13588,12 @@
         <v>-4152643.00946744</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>17.7</v>
       </c>
-      <c r="J379" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13784,9 +13630,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13823,9 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13862,9 +13704,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13901,9 +13741,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13940,9 +13778,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,14 +13812,10 @@
         <v>-4137592.13856744</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J385" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14017,12 +13849,12 @@
         <v>-4137592.13856744</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14056,14 +13888,12 @@
         <v>-4150356.76486744</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>17.7</v>
       </c>
-      <c r="J387" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,14 +13927,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>17.5</v>
       </c>
-      <c r="J388" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14138,12 +13966,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14177,12 +14005,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14216,14 +14044,12 @@
         <v>-4152220.58206744</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>17.6</v>
       </c>
-      <c r="J391" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14257,14 +14083,12 @@
         <v>-4152220.58206744</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>17.5</v>
       </c>
-      <c r="J392" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14298,14 +14122,12 @@
         <v>-4107901.58206744</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>17.5</v>
       </c>
-      <c r="J393" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,14 +14161,12 @@
         <v>-4156077.25266744</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>17.6</v>
       </c>
-      <c r="J394" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14380,14 +14200,12 @@
         <v>-4148361.53746744</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>17.2</v>
       </c>
-      <c r="J395" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,12 +14239,12 @@
         <v>-4148361.53746744</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,14 +14278,12 @@
         <v>-4139361.53746744</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>17.4</v>
       </c>
-      <c r="J397" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14501,14 +14317,12 @@
         <v>-4139361.53746744</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>17.5</v>
       </c>
-      <c r="J398" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14542,14 +14356,12 @@
         <v>-4140861.53746744</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>17.5</v>
       </c>
-      <c r="J399" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,14 +14395,12 @@
         <v>-4125552.40856744</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>17.3</v>
       </c>
-      <c r="J400" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14624,14 +14434,10 @@
         <v>-4127920.48786744</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J401" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14665,14 +14471,12 @@
         <v>-4122955.43446744</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>17.6</v>
       </c>
-      <c r="J402" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14706,14 +14510,10 @@
         <v>-4128359.91026744</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J403" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,14 +14547,12 @@
         <v>-4128348.91026744</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>17.4</v>
       </c>
-      <c r="J404" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14788,14 +14586,10 @@
         <v>-4128348.91026744</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J405" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14829,14 +14623,12 @@
         <v>-4128348.91026744</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>17.7</v>
       </c>
-      <c r="J406" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14870,14 +14662,12 @@
         <v>-3977531.48016744</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>17.7</v>
       </c>
-      <c r="J407" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14914,9 +14704,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14953,9 +14741,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14992,9 +14778,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15031,9 +14815,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,14 +14849,10 @@
         <v>-3328079.60956744</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J412" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15108,12 +14886,12 @@
         <v>-3414190.454267439</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15147,12 +14925,12 @@
         <v>-3414190.454267439</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
         <v>17.5</v>
       </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15186,14 +14964,10 @@
         <v>-3414190.454267439</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J415" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15230,9 +15004,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15266,14 +15038,12 @@
         <v>-3360840.454267439</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>17.5</v>
       </c>
-      <c r="J417" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15307,14 +15077,12 @@
         <v>-3309074.961767439</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>17.6</v>
       </c>
-      <c r="J418" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,14 +15116,10 @@
         <v>-3309074.961767439</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J419" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15392,9 +15156,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15428,14 +15190,10 @@
         <v>-3317697.790067439</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J421" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15472,9 +15230,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15511,9 +15267,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15550,9 +15304,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15589,9 +15341,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15628,9 +15378,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15667,9 +15415,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15706,9 +15452,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,9 +15489,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15784,9 +15526,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15820,14 +15560,10 @@
         <v>-3319214.72806744</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J431" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15864,9 +15600,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15900,14 +15634,10 @@
         <v>-3298814.72806744</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J433" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15944,9 +15674,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15983,9 +15711,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16022,9 +15748,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16061,9 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16100,9 +15822,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16139,9 +15859,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16178,9 +15896,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,9 +15933,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,9 +15970,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16295,9 +16007,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16334,9 +16044,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16373,9 +16081,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16412,9 +16118,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16451,9 +16155,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16490,9 +16192,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16529,9 +16229,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16568,9 +16266,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16607,9 +16303,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16646,9 +16340,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16685,9 +16377,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16724,9 +16414,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16763,9 +16451,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,9 +16488,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16838,12 +16522,12 @@
         <v>-3246512.86266744</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>17.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16880,9 +16564,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16916,14 +16598,12 @@
         <v>-3246512.86266744</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>17.8</v>
       </c>
-      <c r="J459" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16960,9 +16640,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16999,9 +16677,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17038,9 +16714,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17077,9 +16751,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17116,9 +16788,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17152,14 +16822,10 @@
         <v>-3246512.86266744</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J465" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,9 +16862,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,9 +16899,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,9 +16936,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,9 +16973,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,9 +17010,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,9 +17047,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17430,9 +17084,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17469,9 +17121,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,9 +17158,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17547,9 +17195,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17586,9 +17232,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17625,9 +17269,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17664,9 +17306,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17703,9 +17343,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17742,9 +17380,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17781,9 +17417,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,9 +17454,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17859,9 +17491,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,9 +17528,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17937,9 +17565,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17976,9 +17602,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18015,9 +17639,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18054,9 +17676,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18093,9 +17713,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18132,9 +17750,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,9 +17787,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18210,9 +17824,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18249,9 +17861,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18288,9 +17898,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18327,9 +17935,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18366,9 +17972,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18405,9 +18009,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,9 +18046,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18483,9 +18083,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18522,9 +18120,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18561,9 +18157,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18600,9 +18194,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18639,9 +18231,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18678,9 +18268,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18717,9 +18305,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18756,9 +18342,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18795,9 +18379,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18809,6 +18391,6 @@
       <c r="M507" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest LBA.xlsx
+++ b/BackTest/2019-10-30 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1988522.878352026</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1988522.878352026</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1220601.02461481</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-957406.5614148102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-761083.6206148103</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1463898.59841481</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1757683.56011481</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1757683.56011481</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1718063.72681481</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1404902.15541481</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1464604.32381481</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1477198.65661481</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1477198.65661481</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1477198.65661481</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1425230.42201481</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1443730.89041481</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1390383.40991481</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1613031.72091481</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1596754.42441481</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1677234.98151481</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2071007.44171481</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2105803.53461481</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1975844.04661481</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1983767.94501481</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2000951.67711481</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1676473.459214811</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1621527.475067442</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1673172.470967442</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1901641.488667442</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2315810.980867442</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-2303621.959567442</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-2303611.959567442</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-2303611.959567442</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -8734,17 +8734,11 @@
         <v>-4267450.803267442</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>17.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8773,17 +8767,11 @@
         <v>-4267450.803267442</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8812,17 +8800,11 @@
         <v>-4242448.303267442</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8892,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9147,17 +9097,11 @@
         <v>-4366127.107567442</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9186,17 +9130,11 @@
         <v>-4380036.520667441</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9225,17 +9163,11 @@
         <v>-4138942.520667441</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>17.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9264,17 +9196,11 @@
         <v>-4136736.520667441</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9303,17 +9229,11 @@
         <v>-4134236.520667441</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>17.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9342,17 +9262,11 @@
         <v>-4193877.738867441</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>17.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9381,17 +9295,11 @@
         <v>-4081246.956967441</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>17.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9420,17 +9328,11 @@
         <v>-4177844.033167441</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>17.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9459,17 +9361,11 @@
         <v>-4168007.091967442</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>17.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9498,17 +9394,11 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9537,17 +9427,11 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9576,17 +9460,11 @@
         <v>-4164556.091967442</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9615,17 +9493,11 @@
         <v>-4469212.467567442</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9654,17 +9526,11 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9698,12 +9564,10 @@
       <c r="I278" t="n">
         <v>17.3</v>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9737,10 +9601,12 @@
       <c r="I279" t="n">
         <v>17.3</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9776,10 +9642,12 @@
       <c r="I280" t="n">
         <v>17.1</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L280" t="n">
@@ -9815,7 +9683,9 @@
       <c r="I281" t="n">
         <v>17.3</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,7 +9724,9 @@
       <c r="I282" t="n">
         <v>17.4</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,7 +9765,9 @@
       <c r="I283" t="n">
         <v>17.4</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9932,7 +9806,9 @@
       <c r="I284" t="n">
         <v>17.4</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9971,7 +9847,9 @@
       <c r="I285" t="n">
         <v>17.4</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10010,7 +9888,9 @@
       <c r="I286" t="n">
         <v>17.7</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,7 +9929,9 @@
       <c r="I287" t="n">
         <v>17.2</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,7 +9970,9 @@
       <c r="I288" t="n">
         <v>17.3</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,12 +10006,12 @@
         <v>-4708459.405367442</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,7 +10050,9 @@
       <c r="I290" t="n">
         <v>17.4</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10205,7 +10091,9 @@
       <c r="I291" t="n">
         <v>17.5</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,7 +10132,9 @@
       <c r="I292" t="n">
         <v>17.5</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10283,7 +10173,9 @@
       <c r="I293" t="n">
         <v>17.5</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10322,7 +10214,9 @@
       <c r="I294" t="n">
         <v>17.5</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10361,7 +10255,9 @@
       <c r="I295" t="n">
         <v>17.6</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10395,12 +10291,12 @@
         <v>-4720853.609567442</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10434,12 +10330,12 @@
         <v>-4713543.620067442</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,7 +10374,9 @@
       <c r="I298" t="n">
         <v>17.6</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,7 +10415,9 @@
       <c r="I299" t="n">
         <v>17.7</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10551,12 +10451,12 @@
         <v>-4751681.071967442</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,12 +10490,12 @@
         <v>-4901930.282467442</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,10 +10529,14 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J302" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10671,7 +10575,9 @@
       <c r="I303" t="n">
         <v>17.6</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10705,12 +10611,12 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10749,7 +10655,9 @@
       <c r="I305" t="n">
         <v>17.6</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10788,7 +10696,9 @@
       <c r="I306" t="n">
         <v>17.3</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,7 +10737,9 @@
       <c r="I307" t="n">
         <v>17.6</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10866,7 +10778,9 @@
       <c r="I308" t="n">
         <v>17.3</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10905,7 +10819,9 @@
       <c r="I309" t="n">
         <v>17.5</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10944,7 +10860,9 @@
       <c r="I310" t="n">
         <v>17.7</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10983,7 +10901,9 @@
       <c r="I311" t="n">
         <v>17.2</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11022,7 +10942,9 @@
       <c r="I312" t="n">
         <v>17.4</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,7 +10983,9 @@
       <c r="I313" t="n">
         <v>17.3</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11100,7 +11024,9 @@
       <c r="I314" t="n">
         <v>17.2</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,7 +11065,9 @@
       <c r="I315" t="n">
         <v>17.3</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11178,7 +11106,9 @@
       <c r="I316" t="n">
         <v>17.4</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,7 +11147,9 @@
       <c r="I317" t="n">
         <v>17.4</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11256,7 +11188,9 @@
       <c r="I318" t="n">
         <v>17.4</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11295,7 +11229,9 @@
       <c r="I319" t="n">
         <v>17.4</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11334,7 +11270,9 @@
       <c r="I320" t="n">
         <v>17.4</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11373,7 +11311,9 @@
       <c r="I321" t="n">
         <v>17.5</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11412,7 +11352,9 @@
       <c r="I322" t="n">
         <v>17.4</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,7 +11393,9 @@
       <c r="I323" t="n">
         <v>17.5</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11490,7 +11434,9 @@
       <c r="I324" t="n">
         <v>17.7</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,7 +11475,9 @@
       <c r="I325" t="n">
         <v>17.5</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11568,7 +11516,9 @@
       <c r="I326" t="n">
         <v>17.9</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11607,7 +11557,9 @@
       <c r="I327" t="n">
         <v>17.4</v>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,7 +11598,9 @@
       <c r="I328" t="n">
         <v>17.4</v>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11685,7 +11639,9 @@
       <c r="I329" t="n">
         <v>17.3</v>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11724,7 +11680,9 @@
       <c r="I330" t="n">
         <v>17.4</v>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11763,7 +11721,9 @@
       <c r="I331" t="n">
         <v>17.5</v>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11802,7 +11762,9 @@
       <c r="I332" t="n">
         <v>17.9</v>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11841,7 +11803,9 @@
       <c r="I333" t="n">
         <v>17.4</v>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11880,7 +11844,9 @@
       <c r="I334" t="n">
         <v>17.8</v>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11919,7 +11885,9 @@
       <c r="I335" t="n">
         <v>17.8</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11956,7 +11924,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11990,12 +11960,12 @@
         <v>-4089362.58866744</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12034,7 +12004,9 @@
       <c r="I338" t="n">
         <v>17.7</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12073,7 +12045,9 @@
       <c r="I339" t="n">
         <v>17.6</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12112,7 +12086,9 @@
       <c r="I340" t="n">
         <v>17.4</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12151,7 +12127,9 @@
       <c r="I341" t="n">
         <v>17.5</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12190,7 +12168,9 @@
       <c r="I342" t="n">
         <v>17.5</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12229,7 +12209,9 @@
       <c r="I343" t="n">
         <v>17.5</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12268,7 +12250,9 @@
       <c r="I344" t="n">
         <v>17.5</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,10 +12286,14 @@
         <v>-3999749.53936744</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J345" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,7 +12330,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,7 +12369,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,7 +12408,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,7 +12447,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,7 +12486,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12527,7 +12525,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12564,7 +12564,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,7 +12603,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12638,7 +12642,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12675,7 +12681,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,7 +12720,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12749,7 +12759,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12786,7 +12798,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12823,7 +12837,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,7 +12876,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12897,7 +12915,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,7 +12954,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12968,12 +12990,12 @@
         <v>-4107778.72226744</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13007,12 +13029,12 @@
         <v>-4130732.27796744</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13046,12 +13068,12 @@
         <v>-4122731.27796744</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13085,12 +13107,12 @@
         <v>-4109268.13556744</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13124,12 +13146,12 @@
         <v>-4110979.13556744</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13163,12 +13185,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13205,7 +13227,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,12 +13263,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,12 +13302,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,12 +13341,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13356,12 +13380,12 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13400,7 +13424,9 @@
       <c r="I374" t="n">
         <v>17.3</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13434,12 +13460,12 @@
         <v>-4158066.07326744</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,12 +13499,12 @@
         <v>-4168243.00946744</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13515,7 +13541,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13549,12 +13577,12 @@
         <v>-4157643.00946744</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,12 +13616,12 @@
         <v>-4152643.00946744</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13630,7 +13658,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13667,7 +13697,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13704,7 +13736,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13741,7 +13775,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,7 +13814,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13815,7 +13853,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13849,12 +13889,12 @@
         <v>-4137592.13856744</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13888,12 +13928,12 @@
         <v>-4150356.76486744</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13927,12 +13967,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,12 +14006,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,12 +14045,12 @@
         <v>-4147856.76486744</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,12 +14084,12 @@
         <v>-4152220.58206744</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14083,12 +14123,12 @@
         <v>-4152220.58206744</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J392" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14122,12 +14162,12 @@
         <v>-4107901.58206744</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J393" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,12 +14201,12 @@
         <v>-4156077.25266744</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J394" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14200,12 +14240,12 @@
         <v>-4148361.53746744</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="J395" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14239,12 +14279,12 @@
         <v>-4148361.53746744</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J396" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14278,12 +14318,12 @@
         <v>-4139361.53746744</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J397" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14317,12 +14357,12 @@
         <v>-4139361.53746744</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J398" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14356,12 +14396,12 @@
         <v>-4140861.53746744</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J399" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14395,12 +14435,12 @@
         <v>-4125552.40856744</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14437,7 +14477,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14471,12 +14513,12 @@
         <v>-4122955.43446744</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14513,7 +14555,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14547,12 +14591,12 @@
         <v>-4128348.91026744</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J404" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14589,7 +14633,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,12 +14669,12 @@
         <v>-4128348.91026744</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,12 +14708,12 @@
         <v>-3977531.48016744</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14704,7 +14750,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14741,7 +14789,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14778,7 +14828,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14815,7 +14867,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14852,7 +14906,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14886,12 +14942,12 @@
         <v>-3414190.454267439</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14925,12 +14981,12 @@
         <v>-3414190.454267439</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J414" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14967,7 +15023,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15004,7 +15062,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15038,12 +15098,12 @@
         <v>-3360840.454267439</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15077,12 +15137,12 @@
         <v>-3309074.961767439</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15119,7 +15179,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15156,7 +15218,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15193,7 +15257,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15230,7 +15296,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,7 +15335,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15304,7 +15374,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15341,7 +15413,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,7 +15452,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15415,7 +15491,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15452,7 +15530,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15489,7 +15569,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15526,7 +15608,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15563,7 +15647,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15600,7 +15686,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,7 +15725,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15674,7 +15764,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15711,7 +15803,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15748,7 +15842,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15785,7 +15881,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15822,7 +15920,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15859,7 +15959,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15896,7 +15998,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,7 +16037,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15970,7 +16076,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16007,7 +16115,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16044,7 +16154,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,7 +16193,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16118,7 +16232,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16155,7 +16271,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,7 +16310,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16229,7 +16349,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16266,7 +16388,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16303,7 +16427,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16340,7 +16466,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,7 +16505,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16414,7 +16544,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16451,7 +16583,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16488,7 +16622,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16522,12 +16658,12 @@
         <v>-3246512.86266744</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +16700,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16598,12 +16736,12 @@
         <v>-3246512.86266744</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16640,7 +16778,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16677,7 +16817,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16714,7 +16856,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16751,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16825,7 +16973,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,7 +17012,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16899,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16936,7 +17090,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16973,7 +17129,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17010,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,7 +17207,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17084,7 +17246,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17121,7 +17285,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17158,7 +17324,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17195,7 +17363,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17232,7 +17402,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17269,7 +17441,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17306,7 +17480,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17343,7 +17519,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17380,7 +17558,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,7 +17597,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17454,7 +17636,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17491,7 +17675,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17528,7 +17714,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17565,7 +17753,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17602,7 +17792,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17639,7 +17831,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17676,7 +17870,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,7 +17909,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17750,7 +17948,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17787,7 +17987,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17824,7 +18026,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17861,7 +18065,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17898,7 +18104,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17935,7 +18143,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17972,7 +18182,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18009,7 +18221,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18046,7 +18260,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18083,7 +18299,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18120,7 +18338,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18157,7 +18377,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18194,7 +18416,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +18455,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,7 +18494,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,7 +18533,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,7 +18572,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18379,7 +18611,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>17.3</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18391,6 +18625,6 @@
       <c r="M507" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest LBA.xlsx
+++ b/BackTest/2019-10-30 BackTest LBA.xlsx
@@ -1078,7 +1078,7 @@
         <v>-600453.6714148102</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-869077.8953148102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-930981.7626148103</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1051431.56901481</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1008705.23011481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1255667.45631481</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1247910.63821481</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1255410.63821481</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1324987.46821481</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1414840.45181481</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1338930.40881481</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1342174.54471481</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1289584.54471481</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1718063.72681481</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1425230.42201481</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1443730.89041481</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1390383.40991481</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1613031.72091481</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-1596754.42441481</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1621155.68061481</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1677234.98151481</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2071007.44171481</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2189982.01771481</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1983767.94501481</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2000951.67711481</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1643941.97421481</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1676473.459214811</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2754094.581267442</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -9559,14 +9559,10 @@
         <v>-4743176.097867442</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J278" t="n">
-        <v>17.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
@@ -9596,19 +9592,11 @@
         <v>-4783047.552467442</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J279" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9637,19 +9625,11 @@
         <v>-4732831.081267443</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J280" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9678,19 +9658,11 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="J281" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9719,19 +9691,11 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J282" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9760,19 +9724,11 @@
         <v>-4716598.081267443</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="J283" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9807,13 +9763,9 @@
         <v>17.4</v>
       </c>
       <c r="J284" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>17.4</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9842,17 +9794,15 @@
         <v>-4696936.081267443</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>17.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9889,7 +9839,7 @@
         <v>17.7</v>
       </c>
       <c r="J286" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -9930,7 +9880,7 @@
         <v>17.2</v>
       </c>
       <c r="J287" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -9971,7 +9921,7 @@
         <v>17.3</v>
       </c>
       <c r="J288" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10006,11 +9956,13 @@
         <v>-4708459.405367442</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J289" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10051,7 +10003,7 @@
         <v>17.4</v>
       </c>
       <c r="J290" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10092,7 +10044,7 @@
         <v>17.5</v>
       </c>
       <c r="J291" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10133,7 +10085,7 @@
         <v>17.5</v>
       </c>
       <c r="J292" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10174,7 +10126,7 @@
         <v>17.5</v>
       </c>
       <c r="J293" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10215,7 +10167,7 @@
         <v>17.5</v>
       </c>
       <c r="J294" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10256,7 +10208,7 @@
         <v>17.6</v>
       </c>
       <c r="J295" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10291,11 +10243,13 @@
         <v>-4720853.609567442</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>17.6</v>
+      </c>
       <c r="J296" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10330,11 +10284,13 @@
         <v>-4713543.620067442</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J297" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10375,7 +10331,7 @@
         <v>17.6</v>
       </c>
       <c r="J298" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10416,7 +10372,7 @@
         <v>17.7</v>
       </c>
       <c r="J299" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10451,11 +10407,13 @@
         <v>-4751681.071967442</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J300" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10490,11 +10448,13 @@
         <v>-4901930.282467442</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>17.6</v>
+      </c>
       <c r="J301" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10535,7 +10495,7 @@
         <v>17.3</v>
       </c>
       <c r="J302" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10576,7 +10536,7 @@
         <v>17.6</v>
       </c>
       <c r="J303" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10611,11 +10571,13 @@
         <v>-4900848.282567441</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>17.6</v>
+      </c>
       <c r="J304" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10656,7 +10618,7 @@
         <v>17.6</v>
       </c>
       <c r="J305" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10697,7 +10659,7 @@
         <v>17.3</v>
       </c>
       <c r="J306" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10738,7 +10700,7 @@
         <v>17.6</v>
       </c>
       <c r="J307" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -10779,7 +10741,7 @@
         <v>17.3</v>
       </c>
       <c r="J308" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -10820,7 +10782,7 @@
         <v>17.5</v>
       </c>
       <c r="J309" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -10861,7 +10823,7 @@
         <v>17.7</v>
       </c>
       <c r="J310" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -10902,7 +10864,7 @@
         <v>17.2</v>
       </c>
       <c r="J311" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -10943,7 +10905,7 @@
         <v>17.4</v>
       </c>
       <c r="J312" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -10984,7 +10946,7 @@
         <v>17.3</v>
       </c>
       <c r="J313" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11025,7 +10987,7 @@
         <v>17.2</v>
       </c>
       <c r="J314" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11066,7 +11028,7 @@
         <v>17.3</v>
       </c>
       <c r="J315" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11107,7 +11069,7 @@
         <v>17.4</v>
       </c>
       <c r="J316" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11148,7 +11110,7 @@
         <v>17.4</v>
       </c>
       <c r="J317" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11189,7 +11151,7 @@
         <v>17.4</v>
       </c>
       <c r="J318" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11230,7 +11192,7 @@
         <v>17.4</v>
       </c>
       <c r="J319" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11271,7 +11233,7 @@
         <v>17.4</v>
       </c>
       <c r="J320" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11312,7 +11274,7 @@
         <v>17.5</v>
       </c>
       <c r="J321" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11353,7 +11315,7 @@
         <v>17.4</v>
       </c>
       <c r="J322" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11394,7 +11356,7 @@
         <v>17.5</v>
       </c>
       <c r="J323" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11435,7 +11397,7 @@
         <v>17.7</v>
       </c>
       <c r="J324" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11476,7 +11438,7 @@
         <v>17.5</v>
       </c>
       <c r="J325" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11517,7 +11479,7 @@
         <v>17.9</v>
       </c>
       <c r="J326" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11558,7 +11520,7 @@
         <v>17.4</v>
       </c>
       <c r="J327" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11599,7 +11561,7 @@
         <v>17.4</v>
       </c>
       <c r="J328" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11640,7 +11602,7 @@
         <v>17.3</v>
       </c>
       <c r="J329" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11681,7 +11643,7 @@
         <v>17.4</v>
       </c>
       <c r="J330" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11722,7 +11684,7 @@
         <v>17.5</v>
       </c>
       <c r="J331" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11763,7 +11725,7 @@
         <v>17.9</v>
       </c>
       <c r="J332" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -11804,7 +11766,7 @@
         <v>17.4</v>
       </c>
       <c r="J333" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -11845,7 +11807,7 @@
         <v>17.8</v>
       </c>
       <c r="J334" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -11886,7 +11848,7 @@
         <v>17.8</v>
       </c>
       <c r="J335" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -11921,11 +11883,13 @@
         <v>-4206711.95466744</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J336" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -11960,11 +11924,13 @@
         <v>-4089362.58866744</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J337" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12005,7 +11971,7 @@
         <v>17.7</v>
       </c>
       <c r="J338" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12046,7 +12012,7 @@
         <v>17.6</v>
       </c>
       <c r="J339" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12087,7 +12053,7 @@
         <v>17.4</v>
       </c>
       <c r="J340" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12128,7 +12094,7 @@
         <v>17.5</v>
       </c>
       <c r="J341" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12169,7 +12135,7 @@
         <v>17.5</v>
       </c>
       <c r="J342" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12210,7 +12176,7 @@
         <v>17.5</v>
       </c>
       <c r="J343" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12251,7 +12217,7 @@
         <v>17.5</v>
       </c>
       <c r="J344" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12292,7 +12258,7 @@
         <v>17.6</v>
       </c>
       <c r="J345" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12331,7 +12297,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12370,7 +12336,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12409,7 +12375,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12448,7 +12414,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12483,11 +12449,13 @@
         <v>-3911753.10386744</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>17.4</v>
+      </c>
       <c r="J350" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12526,7 +12494,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12565,7 +12533,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12604,7 +12572,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12643,7 +12611,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12682,7 +12650,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12721,7 +12689,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12760,7 +12728,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12799,7 +12767,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12838,7 +12806,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12877,7 +12845,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12916,7 +12884,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12955,7 +12923,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12994,7 +12962,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13033,7 +13001,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13072,7 +13040,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13111,7 +13079,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13150,7 +13118,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13189,7 +13157,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13228,7 +13196,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13263,11 +13231,13 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J370" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13302,11 +13272,13 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J371" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13341,11 +13313,13 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J372" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13380,11 +13354,13 @@
         <v>-4165308.98026744</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J373" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13425,7 +13401,7 @@
         <v>17.3</v>
       </c>
       <c r="J374" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13460,11 +13436,13 @@
         <v>-4158066.07326744</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>17.7</v>
+      </c>
       <c r="J375" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13503,7 +13481,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13542,7 +13520,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13581,7 +13559,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13620,7 +13598,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13659,7 +13637,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13698,7 +13676,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13737,7 +13715,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13776,7 +13754,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13815,7 +13793,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13854,7 +13832,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13893,7 +13871,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13932,7 +13910,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13971,7 +13949,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14010,7 +13988,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14049,7 +14027,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14088,7 +14066,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14127,7 +14105,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14166,7 +14144,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14205,7 +14183,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14244,7 +14222,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14283,7 +14261,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14322,7 +14300,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14361,7 +14339,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14400,7 +14378,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14435,11 +14413,13 @@
         <v>-4125552.40856744</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J400" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14478,7 +14458,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14517,7 +14497,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14556,7 +14536,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14595,7 +14575,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14634,7 +14614,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14673,7 +14653,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14712,7 +14692,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14751,7 +14731,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14790,7 +14770,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14829,7 +14809,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14868,7 +14848,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14907,7 +14887,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14946,7 +14926,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14985,7 +14965,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15024,7 +15004,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15063,7 +15043,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15102,7 +15082,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15141,7 +15121,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15180,7 +15160,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15219,7 +15199,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15258,7 +15238,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15297,7 +15277,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15336,7 +15316,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15375,7 +15355,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15414,7 +15394,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15453,7 +15433,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15492,7 +15472,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15531,7 +15511,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15570,7 +15550,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15609,7 +15589,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15648,7 +15628,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15687,7 +15667,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15726,7 +15706,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15765,7 +15745,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15804,7 +15784,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15843,7 +15823,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15882,7 +15862,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15921,7 +15901,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15960,7 +15940,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15999,7 +15979,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16038,7 +16018,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16077,7 +16057,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16116,7 +16096,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16155,7 +16135,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16194,7 +16174,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16233,7 +16213,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16272,7 +16252,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16311,7 +16291,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16350,7 +16330,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16389,7 +16369,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16428,7 +16408,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16467,7 +16447,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16506,7 +16486,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16545,7 +16525,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16584,7 +16564,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16623,7 +16603,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16662,7 +16642,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16701,7 +16681,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16740,7 +16720,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16779,7 +16759,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16818,7 +16798,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16857,7 +16837,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16896,7 +16876,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16935,7 +16915,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16974,7 +16954,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17013,7 +16993,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17052,7 +17032,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17091,7 +17071,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17130,7 +17110,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17169,7 +17149,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17208,7 +17188,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17247,7 +17227,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17286,7 +17266,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17325,7 +17305,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17364,7 +17344,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17403,7 +17383,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17442,7 +17422,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17481,7 +17461,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17520,7 +17500,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17559,7 +17539,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17598,7 +17578,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17637,7 +17617,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17676,7 +17656,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17715,7 +17695,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17754,7 +17734,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -17793,7 +17773,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17832,7 +17812,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17871,7 +17851,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17910,7 +17890,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17949,7 +17929,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17988,7 +17968,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18027,7 +18007,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18066,7 +18046,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18105,7 +18085,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18144,7 +18124,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18183,7 +18163,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18222,7 +18202,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18261,7 +18241,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18300,7 +18280,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18339,7 +18319,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18378,7 +18358,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18417,7 +18397,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18456,7 +18436,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18495,7 +18475,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18534,7 +18514,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18573,7 +18553,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18612,7 +18592,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
